--- a/model/Outputs/8. Fixed RE/No PV w Bat/Output Files/30/Output_28_39.xlsx
+++ b/model/Outputs/8. Fixed RE/No PV w Bat/Output Files/30/Output_28_39.xlsx
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>57499.70070242076</v>
+        <v>11358619.6374307</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>57499.70070242076</v>
+        <v>11358619.6374307</v>
       </c>
     </row>
     <row r="9">
@@ -531,7 +531,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>1977.149097184782</v>
+        <v>313055.8944230942</v>
       </c>
     </row>
     <row r="10">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>1977.149097184782</v>
+        <v>313055.8944230942</v>
       </c>
     </row>
     <row r="11">
@@ -561,7 +561,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>1190198284.830478</v>
+        <v>49799986.16897739</v>
       </c>
     </row>
   </sheetData>
@@ -26131,7 +26131,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>10898.87661103603</v>
+        <v>1241400.427412047</v>
       </c>
     </row>
     <row r="3">
@@ -26139,7 +26139,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>20105.19062088906</v>
+        <v>2217417.633669808</v>
       </c>
     </row>
     <row r="4">
@@ -26147,7 +26147,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>29312.27548776852</v>
+        <v>3193434.839927569</v>
       </c>
     </row>
     <row r="5">
@@ -26155,7 +26155,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>38545.54929559757</v>
+        <v>4169460.693734062</v>
       </c>
     </row>
     <row r="6">
@@ -26163,7 +26163,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>47778.8855978186</v>
+        <v>5145477.899991823</v>
       </c>
     </row>
     <row r="7">
@@ -26171,7 +26171,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>57012.22190003961</v>
+        <v>6121495.106249584</v>
       </c>
     </row>
     <row r="8">
@@ -26179,7 +26179,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>66245.55820226064</v>
+        <v>7097512.312507341</v>
       </c>
     </row>
     <row r="9">
@@ -26187,7 +26187,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>75478.89450448165</v>
+        <v>8073529.518765098</v>
       </c>
     </row>
     <row r="10">
@@ -26195,7 +26195,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>84726.92308902483</v>
+        <v>9040747.603414038</v>
       </c>
     </row>
     <row r="11">
@@ -26203,7 +26203,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>93978.10331692787</v>
+        <v>10018645.24000522</v>
       </c>
     </row>
     <row r="12">
@@ -26211,7 +26211,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>103211.4396191489</v>
+        <v>10994662.44626298</v>
       </c>
     </row>
     <row r="13">
@@ -26219,7 +26219,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>112444.7759213698</v>
+        <v>11970679.65252075</v>
       </c>
     </row>
     <row r="14">
@@ -26227,7 +26227,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>121678.1122235908</v>
+        <v>12946696.85877852</v>
       </c>
     </row>
     <row r="15">
@@ -26235,7 +26235,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>130967.7970217244</v>
+        <v>13870524.81112413</v>
       </c>
     </row>
     <row r="16">
@@ -26243,7 +26243,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>140427.1249601652</v>
+        <v>14795250.12977336</v>
       </c>
     </row>
   </sheetData>
@@ -27037,13 +27037,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="E2" t="n">
         <v>388</v>
@@ -27052,10 +27052,10 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -27089,49 +27089,49 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="M3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="4">
@@ -27144,7 +27144,7 @@
         <v>421</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
@@ -27156,10 +27156,10 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
